--- a/data/data_export_example.xlsx
+++ b/data/data_export_example.xlsx
@@ -34,130 +34,130 @@
     <t>Server_UpdatedAt</t>
   </si>
   <si>
-    <t>server#1</t>
-  </si>
-  <si>
-    <t>192.168.1.1</t>
+    <t>google.com</t>
+  </si>
+  <si>
+    <t>103.10.4.227</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>facebook.com</t>
+  </si>
+  <si>
+    <t>103.102.166.224</t>
   </si>
   <si>
     <t>off</t>
   </si>
   <si>
-    <t>server#2</t>
-  </si>
-  <si>
-    <t>192.168.1.2</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>server#3</t>
-  </si>
-  <si>
-    <t>192.168.1.3</t>
-  </si>
-  <si>
-    <t>server#4</t>
-  </si>
-  <si>
-    <t>192.168.1.4</t>
-  </si>
-  <si>
-    <t>server#5</t>
-  </si>
-  <si>
-    <t>192.168.1.5</t>
-  </si>
-  <si>
-    <t>server#6</t>
-  </si>
-  <si>
-    <t>192.168.1.6</t>
-  </si>
-  <si>
-    <t>server#7</t>
-  </si>
-  <si>
-    <t>192.168.1.7</t>
-  </si>
-  <si>
-    <t>server#8</t>
-  </si>
-  <si>
-    <t>192.168.1.8</t>
-  </si>
-  <si>
-    <t>server#9</t>
-  </si>
-  <si>
-    <t>192.168.1.9</t>
-  </si>
-  <si>
-    <t>server#10</t>
-  </si>
-  <si>
-    <t>192.168.1.10</t>
-  </si>
-  <si>
-    <t>server#11</t>
-  </si>
-  <si>
-    <t>192.168.1.11</t>
-  </si>
-  <si>
-    <t>server#12</t>
-  </si>
-  <si>
-    <t>192.168.1.12</t>
-  </si>
-  <si>
-    <t>server#13</t>
-  </si>
-  <si>
-    <t>192.168.1.13</t>
-  </si>
-  <si>
-    <t>server#14</t>
-  </si>
-  <si>
-    <t>192.168.1.14</t>
-  </si>
-  <si>
-    <t>server#15</t>
-  </si>
-  <si>
-    <t>192.168.1.15</t>
-  </si>
-  <si>
-    <t>server#16</t>
-  </si>
-  <si>
-    <t>192.168.1.16</t>
-  </si>
-  <si>
-    <t>server#17</t>
-  </si>
-  <si>
-    <t>192.168.1.17</t>
-  </si>
-  <si>
-    <t>server#18</t>
-  </si>
-  <si>
-    <t>192.168.1.18</t>
-  </si>
-  <si>
-    <t>server#19</t>
-  </si>
-  <si>
-    <t>192.168.1.19</t>
-  </si>
-  <si>
-    <t>server#20</t>
-  </si>
-  <si>
-    <t>192.168.1.20</t>
+    <t>instagram.com</t>
+  </si>
+  <si>
+    <t>103.102.166.240</t>
+  </si>
+  <si>
+    <t>googletagmanager.com</t>
+  </si>
+  <si>
+    <t>104.103.150.190</t>
+  </si>
+  <si>
+    <t>linkedin.com</t>
+  </si>
+  <si>
+    <t>104.111.201.65</t>
+  </si>
+  <si>
+    <t>ajax.googleapis.com</t>
+  </si>
+  <si>
+    <t>104.16.102.112</t>
+  </si>
+  <si>
+    <t>plus.google.com</t>
+  </si>
+  <si>
+    <t>104.16.114.74</t>
+  </si>
+  <si>
+    <t>gmpg.org</t>
+  </si>
+  <si>
+    <t>104.16.127.24</t>
+  </si>
+  <si>
+    <t>pinterest.com</t>
+  </si>
+  <si>
+    <t>104.16.132.229</t>
+  </si>
+  <si>
+    <t>fonts.gstatic.com</t>
+  </si>
+  <si>
+    <t>104.16.142.237</t>
+  </si>
+  <si>
+    <t>wordpress.org</t>
+  </si>
+  <si>
+    <t>104.16.146.108</t>
+  </si>
+  <si>
+    <t>en.wikipedia.org</t>
+  </si>
+  <si>
+    <t>104.16.146.230</t>
+  </si>
+  <si>
+    <t>youtu.be</t>
+  </si>
+  <si>
+    <t>104.16.148.244</t>
+  </si>
+  <si>
+    <t>maps.google.com</t>
+  </si>
+  <si>
+    <t>104.16.22.8</t>
+  </si>
+  <si>
+    <t>itunes.apple.com</t>
+  </si>
+  <si>
+    <t>104.16.227.115</t>
+  </si>
+  <si>
+    <t>github.com</t>
+  </si>
+  <si>
+    <t>104.16.236.243</t>
+  </si>
+  <si>
+    <t>bit.ly</t>
+  </si>
+  <si>
+    <t>104.16.24.14</t>
+  </si>
+  <si>
+    <t>play.google.com</t>
+  </si>
+  <si>
+    <t>104.16.32.228</t>
+  </si>
+  <si>
+    <t>goo.gl</t>
+  </si>
+  <si>
+    <t>104.16.44.99</t>
+  </si>
+  <si>
+    <t>cdnjs.cloudflare.com</t>
+  </si>
+  <si>
+    <t>104.16.54.16</t>
   </si>
 </sst>
 </file>
@@ -504,10 +504,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>45441.061057988365</v>
+        <v>45455.47760251352</v>
       </c>
       <c r="F2" s="1">
-        <v>45441.061057988365</v>
+        <v>45455.47760251352</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +524,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="1">
-        <v>45441.06105806342</v>
+        <v>45455.47760259815</v>
       </c>
       <c r="F3" s="1">
-        <v>45441.06105806342</v>
+        <v>45455.47760259815</v>
       </c>
     </row>
     <row r="4">
@@ -541,13 +541,13 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>45441.06105810615</v>
+        <v>45455.47760289467</v>
       </c>
       <c r="F4" s="1">
-        <v>45441.06105810615</v>
+        <v>45455.47760289467</v>
       </c>
     </row>
     <row r="5">
@@ -564,10 +564,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="1">
-        <v>45441.06105821874</v>
+        <v>45455.47760295337</v>
       </c>
       <c r="F5" s="1">
-        <v>45441.06105821874</v>
+        <v>45455.47760295337</v>
       </c>
     </row>
     <row r="6">
@@ -584,10 +584,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="1">
-        <v>45441.06105831321</v>
+        <v>45455.47760304739</v>
       </c>
       <c r="F6" s="1">
-        <v>45441.06105831321</v>
+        <v>45455.47760304739</v>
       </c>
     </row>
     <row r="7">
@@ -604,10 +604,10 @@
         <v>8</v>
       </c>
       <c r="E7" s="1">
-        <v>45441.06105846603</v>
+        <v>45455.47760310386</v>
       </c>
       <c r="F7" s="1">
-        <v>45441.06105846603</v>
+        <v>45455.47760310386</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +624,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="1">
-        <v>45441.061058513274</v>
+        <v>45455.47760315858</v>
       </c>
       <c r="F8" s="1">
-        <v>45441.061058513274</v>
+        <v>45455.47760315858</v>
       </c>
     </row>
     <row r="9">
@@ -644,10 +644,10 @@
         <v>11</v>
       </c>
       <c r="E9" s="1">
-        <v>45441.061058563915</v>
+        <v>45455.47760322873</v>
       </c>
       <c r="F9" s="1">
-        <v>45441.061058563915</v>
+        <v>45455.47760322873</v>
       </c>
     </row>
     <row r="10">
@@ -664,10 +664,10 @@
         <v>8</v>
       </c>
       <c r="E10" s="1">
-        <v>45441.06105860334</v>
+        <v>45455.47760329949</v>
       </c>
       <c r="F10" s="1">
-        <v>45441.06105860334</v>
+        <v>45455.47760329949</v>
       </c>
     </row>
     <row r="11">
@@ -681,13 +681,13 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1">
-        <v>45441.06105867509</v>
+        <v>45455.477603374435</v>
       </c>
       <c r="F11" s="1">
-        <v>45441.06105867509</v>
+        <v>45455.477603374435</v>
       </c>
     </row>
     <row r="12">
@@ -701,13 +701,13 @@
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1">
-        <v>45441.06105871196</v>
+        <v>45455.477603440835</v>
       </c>
       <c r="F12" s="1">
-        <v>45441.06105871196</v>
+        <v>45455.477603440835</v>
       </c>
     </row>
     <row r="13">
@@ -721,13 +721,13 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13" s="1">
-        <v>45441.06105875236</v>
+        <v>45455.47760349675</v>
       </c>
       <c r="F13" s="1">
-        <v>45441.06105875236</v>
+        <v>45455.47760349675</v>
       </c>
     </row>
     <row r="14">
@@ -744,10 +744,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="1">
-        <v>45441.06105878287</v>
+        <v>45455.4776035805</v>
       </c>
       <c r="F14" s="1">
-        <v>45441.06105878287</v>
+        <v>45455.4776035805</v>
       </c>
     </row>
     <row r="15">
@@ -761,13 +761,13 @@
         <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1">
-        <v>45441.061058833555</v>
+        <v>45455.47760363507</v>
       </c>
       <c r="F15" s="1">
-        <v>45441.061058833555</v>
+        <v>45455.47760363507</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         <v>8</v>
       </c>
       <c r="E16" s="1">
-        <v>45441.06105887876</v>
+        <v>45455.47760369426</v>
       </c>
       <c r="F16" s="1">
-        <v>45441.06105887876</v>
+        <v>45455.47760369426</v>
       </c>
     </row>
     <row r="17">
@@ -804,10 +804,10 @@
         <v>11</v>
       </c>
       <c r="E17" s="1">
-        <v>45441.06105891881</v>
+        <v>45455.477603761276</v>
       </c>
       <c r="F17" s="1">
-        <v>45441.06105891881</v>
+        <v>45455.477603761276</v>
       </c>
     </row>
     <row r="18">
@@ -821,13 +821,13 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1">
-        <v>45441.061058957464</v>
+        <v>45455.47760381873</v>
       </c>
       <c r="F18" s="1">
-        <v>45441.061058957464</v>
+        <v>45455.47760381873</v>
       </c>
     </row>
     <row r="19">
@@ -844,10 +844,10 @@
         <v>11</v>
       </c>
       <c r="E19" s="1">
-        <v>45441.0610590027</v>
+        <v>45455.47760387556</v>
       </c>
       <c r="F19" s="1">
-        <v>45441.0610590027</v>
+        <v>45455.47760387556</v>
       </c>
     </row>
     <row r="20">
@@ -864,10 +864,10 @@
         <v>11</v>
       </c>
       <c r="E20" s="1">
-        <v>45441.061059047555</v>
+        <v>45455.47760394177</v>
       </c>
       <c r="F20" s="1">
-        <v>45441.061059047555</v>
+        <v>45455.47760394177</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1">
-        <v>45441.06105909489</v>
+        <v>45455.47760401381</v>
       </c>
       <c r="F21" s="1">
-        <v>45441.06105909489</v>
+        <v>45455.47760401381</v>
       </c>
     </row>
   </sheetData>
